--- a/data/trans_orig/P14C15-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C15-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C1042C0-8C84-4137-8724-46270978CE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57EE1F99-1A14-45B9-B1FF-BD57EED3BE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CAC9FEC1-3535-4DFD-96F0-EEA6F8B82D9E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A8DF7535-1807-4CF6-B677-566D5DCC6EAE}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -116,13 +116,13 @@
     <t>88,69%</t>
   </si>
   <si>
-    <t>54,34%</t>
+    <t>54,28%</t>
   </si>
   <si>
     <t>91,7%</t>
   </si>
   <si>
-    <t>66,04%</t>
+    <t>59,59%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -131,13 +131,13 @@
     <t>11,31%</t>
   </si>
   <si>
-    <t>45,66%</t>
+    <t>45,72%</t>
   </si>
   <si>
     <t>8,3%</t>
   </si>
   <si>
-    <t>33,96%</t>
+    <t>40,41%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -152,52 +152,52 @@
     <t>83,96%</t>
   </si>
   <si>
-    <t>34,0%</t>
+    <t>29,38%</t>
   </si>
   <si>
     <t>70,59%</t>
   </si>
   <si>
-    <t>27,47%</t>
+    <t>28,15%</t>
   </si>
   <si>
     <t>76,57%</t>
   </si>
   <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
   </si>
   <si>
     <t>16,04%</t>
   </si>
   <si>
-    <t>66,0%</t>
+    <t>70,62%</t>
   </si>
   <si>
     <t>14,71%</t>
   </si>
   <si>
-    <t>58,52%</t>
+    <t>58,03%</t>
   </si>
   <si>
     <t>15,3%</t>
   </si>
   <si>
-    <t>46,42%</t>
+    <t>46,12%</t>
   </si>
   <si>
     <t>26,42%</t>
   </si>
   <si>
-    <t>63,23%</t>
+    <t>58,29%</t>
   </si>
   <si>
     <t>8,13%</t>
   </si>
   <si>
-    <t>39,59%</t>
+    <t>39,81%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -209,49 +209,49 @@
     <t>52,31%</t>
   </si>
   <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
   </si>
   <si>
     <t>70,12%</t>
   </si>
   <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
   </si>
   <si>
     <t>37,9%</t>
   </si>
   <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
   </si>
   <si>
     <t>23,74%</t>
   </si>
   <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
   </si>
   <si>
     <t>9,79%</t>
   </si>
   <si>
-    <t>39,77%</t>
+    <t>40,5%</t>
   </si>
   <si>
     <t>6,13%</t>
   </si>
   <si>
-    <t>27,19%</t>
+    <t>27,58%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -269,25 +269,25 @@
     <t>10,93%</t>
   </si>
   <si>
-    <t>69,38%</t>
+    <t>68,93%</t>
   </si>
   <si>
     <t>54,33%</t>
   </si>
   <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
   </si>
   <si>
     <t>32,68%</t>
   </si>
   <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
   </si>
   <si>
     <t>19,93%</t>
@@ -296,7 +296,7 @@
     <t>6,2%</t>
   </si>
   <si>
-    <t>46,11%</t>
+    <t>46,79%</t>
   </si>
   <si>
     <t>15,19%</t>
@@ -308,19 +308,19 @@
     <t>32,47%</t>
   </si>
   <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
   </si>
   <si>
     <t>25,73%</t>
   </si>
   <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -341,10 +341,10 @@
     <t>68,34%</t>
   </si>
   <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
   </si>
   <si>
     <t>8,06%</t>
@@ -365,10 +365,10 @@
     <t>15,28%</t>
   </si>
   <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
   </si>
   <si>
     <t>5,87%</t>
@@ -392,82 +392,82 @@
     <t>3,54%</t>
   </si>
   <si>
-    <t>36,63%</t>
+    <t>38,83%</t>
   </si>
   <si>
     <t>89,5%</t>
   </si>
   <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
   </si>
   <si>
     <t>60,49%</t>
   </si>
   <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
   </si>
   <si>
     <t>71,68%</t>
   </si>
   <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
   </si>
   <si>
     <t>5,47%</t>
   </si>
   <si>
-    <t>16,51%</t>
+    <t>18,72%</t>
   </si>
   <si>
     <t>22,65%</t>
   </si>
   <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
   </si>
   <si>
     <t>16,02%</t>
   </si>
   <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>16,4%</t>
+    <t>17,09%</t>
   </si>
   <si>
     <t>16,86%</t>
   </si>
   <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
   </si>
   <si>
     <t>12,3%</t>
   </si>
   <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D69A5C-35A5-4D90-B68E-8D13FDB27701}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300A8543-7CEA-4E50-837D-FEF7C5D088A2}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C15-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C15-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57EE1F99-1A14-45B9-B1FF-BD57EED3BE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B457D302-3A6A-405C-81DF-B6071B3F6EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A8DF7535-1807-4CF6-B677-566D5DCC6EAE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{93755ACA-79FD-4F97-B3A5-95B0568EB2E4}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="145">
   <si>
-    <t>Población según el tiempo de diagnóstico del problemas crónicos de la piel en 2015 (Tasa respuesta: 1,34%)</t>
+    <t>Población según el tiempo de diagnóstico del problemas crónicos de la piel en 2016 (Tasa respuesta: 1,34%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -116,13 +116,13 @@
     <t>88,69%</t>
   </si>
   <si>
-    <t>54,28%</t>
+    <t>55,03%</t>
   </si>
   <si>
     <t>91,7%</t>
   </si>
   <si>
-    <t>59,59%</t>
+    <t>63,09%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -131,13 +131,13 @@
     <t>11,31%</t>
   </si>
   <si>
-    <t>45,72%</t>
+    <t>44,97%</t>
   </si>
   <si>
     <t>8,3%</t>
   </si>
   <si>
-    <t>40,41%</t>
+    <t>36,91%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -152,52 +152,52 @@
     <t>83,96%</t>
   </si>
   <si>
-    <t>29,38%</t>
+    <t>33,92%</t>
   </si>
   <si>
     <t>70,59%</t>
   </si>
   <si>
-    <t>28,15%</t>
+    <t>26,97%</t>
   </si>
   <si>
     <t>76,57%</t>
   </si>
   <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
   </si>
   <si>
     <t>16,04%</t>
   </si>
   <si>
-    <t>70,62%</t>
+    <t>66,08%</t>
   </si>
   <si>
     <t>14,71%</t>
   </si>
   <si>
-    <t>58,03%</t>
+    <t>58,66%</t>
   </si>
   <si>
     <t>15,3%</t>
   </si>
   <si>
-    <t>46,12%</t>
+    <t>45,43%</t>
   </si>
   <si>
     <t>26,42%</t>
   </si>
   <si>
-    <t>58,29%</t>
+    <t>58,89%</t>
   </si>
   <si>
     <t>8,13%</t>
   </si>
   <si>
-    <t>39,81%</t>
+    <t>39,88%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -209,49 +209,49 @@
     <t>52,31%</t>
   </si>
   <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
   </si>
   <si>
     <t>70,12%</t>
   </si>
   <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
   </si>
   <si>
     <t>37,9%</t>
   </si>
   <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
   </si>
   <si>
     <t>23,74%</t>
   </si>
   <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
   </si>
   <si>
     <t>9,79%</t>
   </si>
   <si>
-    <t>40,5%</t>
+    <t>43,8%</t>
   </si>
   <si>
     <t>6,13%</t>
   </si>
   <si>
-    <t>27,58%</t>
+    <t>31,08%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -260,67 +260,67 @@
     <t>84,81%</t>
   </si>
   <si>
-    <t>37,58%</t>
+    <t>34,52%</t>
   </si>
   <si>
     <t>34,85%</t>
   </si>
   <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
   </si>
   <si>
     <t>54,33%</t>
   </si>
   <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
   </si>
   <si>
     <t>32,68%</t>
   </si>
   <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
   </si>
   <si>
     <t>19,93%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
   </si>
   <si>
     <t>15,19%</t>
   </si>
   <si>
-    <t>62,42%</t>
+    <t>65,48%</t>
   </si>
   <si>
     <t>32,47%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
   </si>
   <si>
     <t>25,73%</t>
   </si>
   <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -329,145 +329,145 @@
     <t>86,07%</t>
   </si>
   <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
   </si>
   <si>
     <t>68,34%</t>
   </si>
   <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
   </si>
   <si>
     <t>8,06%</t>
   </si>
   <si>
-    <t>33,3%</t>
+    <t>41,33%</t>
   </si>
   <si>
     <t>20,99%</t>
   </si>
   <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
   </si>
   <si>
     <t>15,28%</t>
   </si>
   <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
   </si>
   <si>
     <t>5,87%</t>
   </si>
   <si>
-    <t>31,67%</t>
+    <t>26,5%</t>
   </si>
   <si>
     <t>24,68%</t>
   </si>
   <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
   </si>
   <si>
     <t>16,38%</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
   </si>
   <si>
     <t>89,5%</t>
   </si>
   <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
   </si>
   <si>
     <t>60,49%</t>
   </si>
   <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
   </si>
   <si>
     <t>71,68%</t>
   </si>
   <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
   </si>
   <si>
     <t>5,47%</t>
   </si>
   <si>
-    <t>18,72%</t>
+    <t>20,24%</t>
   </si>
   <si>
     <t>22,65%</t>
   </si>
   <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
   </si>
   <si>
     <t>16,02%</t>
   </si>
   <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>17,09%</t>
+    <t>17,84%</t>
   </si>
   <si>
     <t>16,86%</t>
   </si>
   <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
   </si>
   <si>
     <t>12,3%</t>
   </si>
   <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300A8543-7CEA-4E50-837D-FEF7C5D088A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D98B12F-842D-4388-AD82-18BF2EBA10D6}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
